--- a/basic/test_result_0714.xlsx
+++ b/basic/test_result_0714.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a22f75bc03278c13/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_Github\basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{3DC6E92A-8B0C-4D39-AC28-262A7632C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAC8C790-F713-414D-93FC-7957C279E9A3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BC05FF-96B6-4BCE-9FD4-FC04D8EF521D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7425" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{718AACBF-04FF-4061-9996-CFECD92F7CE5}"/>
+    <workbookView xWindow="21825" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{718AACBF-04FF-4061-9996-CFECD92F7CE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,8 +446,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>9.5744095886199088E-3</v>
+        <v>0.12570313330728874</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.65">
@@ -585,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>2.0166913635633094E-3</v>
+        <v>2.6106504475022559E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.65">
@@ -596,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>4.3918277938139925E-4</v>
+        <v>1.5551034662077875E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.65">
@@ -607,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.10296460245008261</v>
+        <v>0.37110589438438496</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.65">
@@ -618,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>6.9879778300616383E-2</v>
+        <v>0.16783596351675836</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.65">
@@ -629,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>3.8877518128282967E-2</v>
+        <v>0.11533602886967778</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.65">
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0.14953425101578766</v>
+        <v>0.56819440653055453</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.65">
@@ -651,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>8.6689655600212842E-2</v>
+        <v>0.18467504474354865</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.65">
@@ -662,7 +662,7 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>6.3235994668878318E-2</v>
+        <v>0.13481579053784296</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.65">
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.12570313330728874</v>
+        <v>0.12244033019465697</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.65">
@@ -684,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>2.6106504475022559E-2</v>
+        <v>2.974788412107315E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.65">
@@ -695,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>1.5551034662077875E-2</v>
+        <v>1.0415068414714655E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.65">
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0.37110589438438496</v>
+        <v>0.12926999645773435</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.65">
@@ -717,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>0.16783596351675836</v>
+        <v>4.1490991691541711E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.65">
@@ -728,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>0.11533602886967778</v>
+        <v>2.0341622852445264E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.65">
@@ -739,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>0.56819440653055453</v>
+        <v>0.27800462462911441</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.65">
@@ -750,7 +750,7 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>0.18467504474354865</v>
+        <v>0.10291956699066619</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.65">
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>0.13481579053784296</v>
+        <v>6.2044065782594901E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.65">
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>0.12244033019465697</v>
+        <v>8.9194009393078491E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.65">
@@ -783,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>2.974788412107315E-2</v>
+        <v>4.4534804166857796E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.65">
@@ -794,7 +794,7 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <v>1.0415068414714655E-2</v>
+        <v>2.027483478266277E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.65">
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>0.12926999645773435</v>
+        <v>0.21421437866932178</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.65">
@@ -816,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>4.1490991691541711E-2</v>
+        <v>8.2449766044814896E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.65">
@@ -827,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>2.0341622852445264E-2</v>
+        <v>4.6504698382024076E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.65">
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>0.27800462462911441</v>
+        <v>0.29757811550829433</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.65">
@@ -849,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>0.10291956699066619</v>
+        <v>0.13766050517185774</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.65">
@@ -860,7 +860,7 @@
         <v>4</v>
       </c>
       <c r="C37">
-        <v>6.2044065782594901E-2</v>
+        <v>7.8926851102248369E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.65">
@@ -868,10 +868,10 @@
         <v>100</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>8.9194009393078491E-2</v>
+        <v>0.1019218785835044</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.65">
@@ -879,10 +879,10 @@
         <v>100</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>4.4534804166857796E-2</v>
+        <v>7.6276136723851279E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.65">
@@ -893,73 +893,37 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>2.027483478266277E-2</v>
+        <v>5.6093397027965675E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A41">
-        <v>95</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
       <c r="C41">
-        <v>0.21421437866932178</v>
+        <v>0.11778560185732326</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A42">
-        <v>95</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
       <c r="C42">
-        <v>8.2449766044814896E-2</v>
+        <v>9.5801729575787101E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A43">
-        <v>95</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
       <c r="C43">
-        <v>4.6504698382024076E-2</v>
+        <v>7.1415852432290261E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A44">
-        <v>90</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
       <c r="C44">
-        <v>0.29757811550829433</v>
+        <v>0.11778560185732326</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A45">
-        <v>90</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
       <c r="C45">
-        <v>0.13766050517185774</v>
+        <v>9.5801729575787101E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A46">
-        <v>90</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
       <c r="C46">
-        <v>7.8926851102248369E-2</v>
+        <v>7.1415852432290261E-2</v>
       </c>
     </row>
   </sheetData>
